--- a/data/trans_orig/P20D2_R_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_R_2023-Edad-trans_orig.xlsx
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5942</v>
+        <v>4999</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.419240500323084</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1</v>
+        <v>0.8413104796993868</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1128,19 +1128,19 @@
         <v>1879</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4685</v>
+        <v>4461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2134602517782268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05929505074574655</v>
+        <v>0.05936765539302082</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5322567424787329</v>
+        <v>0.5067519701075658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1149,19 +1149,19 @@
         <v>4370</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1577</v>
+        <v>1705</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8494</v>
+        <v>8133</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2963879806423476</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1069500203081839</v>
+        <v>0.1156270808355003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5760483022207644</v>
+        <v>0.5515785909497383</v>
       </c>
     </row>
     <row r="11">
@@ -1178,7 +1178,7 @@
         <v>3451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>883</v>
+        <v>943</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>5942</v>
@@ -1187,7 +1187,7 @@
         <v>0.5807594996769161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1486872943832775</v>
+        <v>0.1586895203006134</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1199,19 +1199,19 @@
         <v>6924</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4118</v>
+        <v>4342</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8281</v>
+        <v>8280</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7865397482217734</v>
+        <v>0.7865397482217732</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4677432575212674</v>
+        <v>0.4932480298924342</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9407049492542534</v>
+        <v>0.9406323446069791</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1220,19 +1220,19 @@
         <v>10375</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6251</v>
+        <v>6612</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13168</v>
+        <v>13040</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7036120193576524</v>
+        <v>0.7036120193576523</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4239516977792347</v>
+        <v>0.448421409050262</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8930499796918161</v>
+        <v>0.8843729191644997</v>
       </c>
     </row>
     <row r="12">
@@ -1324,19 +1324,19 @@
         <v>11812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6382</v>
+        <v>6881</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15443</v>
+        <v>15499</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6680756220800274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3609701809600652</v>
+        <v>0.3891744113447911</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8734149201212416</v>
+        <v>0.8766126270486562</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1345,19 +1345,19 @@
         <v>5464</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2685</v>
+        <v>2649</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8756</v>
+        <v>8272</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3781829947913312</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1858766768635725</v>
+        <v>0.183391929036551</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6060808983601786</v>
+        <v>0.5725560030642267</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1366,19 +1366,19 @@
         <v>17276</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12334</v>
+        <v>12302</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22809</v>
+        <v>22734</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5377170542293681</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3838968074261777</v>
+        <v>0.382896236350805</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7099477414097597</v>
+        <v>0.7076075403726764</v>
       </c>
     </row>
     <row r="14">
@@ -1395,19 +1395,19 @@
         <v>5869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2238</v>
+        <v>2182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11299</v>
+        <v>10800</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3319243779199725</v>
+        <v>0.3319243779199724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1265850798787586</v>
+        <v>0.1233873729513443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6390298190399358</v>
+        <v>0.6108255886552093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1416,19 +1416,19 @@
         <v>8983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5691</v>
+        <v>6175</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11762</v>
+        <v>11798</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.621817005208669</v>
+        <v>0.6218170052086688</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3939191016398214</v>
+        <v>0.4274439969357735</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8141233231364275</v>
+        <v>0.8166080709634491</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1437,19 +1437,19 @@
         <v>14852</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9319</v>
+        <v>9394</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19794</v>
+        <v>19826</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.462282945770632</v>
+        <v>0.4622829457706318</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2900522585902416</v>
+        <v>0.2923924596273236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6161031925738231</v>
+        <v>0.6171037636491952</v>
       </c>
     </row>
     <row r="15">
@@ -1541,19 +1541,19 @@
         <v>14146</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9544</v>
+        <v>9649</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16887</v>
+        <v>16958</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7929949346993899</v>
+        <v>0.79299493469939</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5350239116684302</v>
+        <v>0.5408942661252315</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9466283149863411</v>
+        <v>0.9506396526303277</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1562,19 +1562,19 @@
         <v>3761</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1734</v>
+        <v>1718</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6498</v>
+        <v>6341</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3483575258097385</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1606045897968132</v>
+        <v>0.1590810333419206</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6018281232507801</v>
+        <v>0.5873011948000042</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1583,19 +1583,19 @@
         <v>17907</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13060</v>
+        <v>12739</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22124</v>
+        <v>21807</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6253415041905628</v>
+        <v>0.6253415041905629</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.456065218712778</v>
+        <v>0.4448530503526325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7725973582310873</v>
+        <v>0.7615124525577031</v>
       </c>
     </row>
     <row r="17">
@@ -1612,19 +1612,19 @@
         <v>3693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>952</v>
+        <v>881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8295</v>
+        <v>8190</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2070050653006102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0533716850136588</v>
+        <v>0.04936034736967242</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4649760883315692</v>
+        <v>0.4591057338747684</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1633,19 +1633,19 @@
         <v>7036</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4299</v>
+        <v>4456</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9063</v>
+        <v>9079</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6516424741902616</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.39817187674922</v>
+        <v>0.4126988051999958</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8393954102031869</v>
+        <v>0.8409189666580792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1654,19 +1654,19 @@
         <v>10729</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6512</v>
+        <v>6829</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15576</v>
+        <v>15897</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3746584958094371</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2274026417689127</v>
+        <v>0.2384875474422973</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5439347812872219</v>
+        <v>0.5551469496473674</v>
       </c>
     </row>
     <row r="18">
@@ -1758,19 +1758,19 @@
         <v>12764</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10086</v>
+        <v>9907</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14289</v>
+        <v>14309</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8388972042120481</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6629122257445019</v>
+        <v>0.6511139700251878</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9391325888255463</v>
+        <v>0.9404633220706902</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1779,19 +1779,19 @@
         <v>2787</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4480</v>
+        <v>4462</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5073328839669851</v>
+        <v>0.5073328839669852</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.184591646394536</v>
+        <v>0.186197049009509</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8154963450684444</v>
+        <v>0.8122026847033118</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1800,19 +1800,19 @@
         <v>15551</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11700</v>
+        <v>12331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17979</v>
+        <v>18122</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7509362230421932</v>
+        <v>0.7509362230421933</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5649915369724181</v>
+        <v>0.5954590559522668</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8681724177547788</v>
+        <v>0.8750825613225496</v>
       </c>
     </row>
     <row r="20">
@@ -1829,19 +1829,19 @@
         <v>2451</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5129</v>
+        <v>5308</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1611027957879519</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06086741117445362</v>
+        <v>0.05953667792930976</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3370877742554988</v>
+        <v>0.3488860299748132</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1850,19 +1850,19 @@
         <v>2707</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1014</v>
+        <v>1032</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4480</v>
+        <v>4471</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4926671160330148</v>
+        <v>0.4926671160330147</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1845036549315557</v>
+        <v>0.187797315296688</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.815408353605464</v>
+        <v>0.8138029509904908</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1871,19 +1871,19 @@
         <v>5158</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2730</v>
+        <v>2587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9009</v>
+        <v>8378</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2490637769578067</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1318275822452213</v>
+        <v>0.1249174386774503</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.435008463027582</v>
+        <v>0.4045409440477334</v>
       </c>
     </row>
     <row r="21">
@@ -1975,19 +1975,19 @@
         <v>4045</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1612</v>
+        <v>1511</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6040</v>
+        <v>6033</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6123164052452191</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2440835715790047</v>
+        <v>0.2287800821073509</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9143833254954843</v>
+        <v>0.9132301493525499</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -1996,19 +1996,19 @@
         <v>4874</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2775</v>
+        <v>2453</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7838</v>
+        <v>7512</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4315660970546366</v>
+        <v>0.4315660970546367</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2457000516006406</v>
+        <v>0.2171831040488889</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6940346141666778</v>
+        <v>0.6651630962046381</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2017,19 +2017,19 @@
         <v>8919</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5760</v>
+        <v>5783</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12502</v>
+        <v>12235</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4982755143719582</v>
+        <v>0.4982755143719583</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.321774972544643</v>
+        <v>0.3230715407507205</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6984618033009256</v>
+        <v>0.6835437754133206</v>
       </c>
     </row>
     <row r="23">
@@ -2046,19 +2046,19 @@
         <v>2561</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4994</v>
+        <v>5095</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3876835947547808</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08561667450451574</v>
+        <v>0.08676985064745021</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7559164284209953</v>
+        <v>0.7712199178926463</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2067,19 +2067,19 @@
         <v>6419</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3455</v>
+        <v>3781</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8518</v>
+        <v>8840</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5684339029453633</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3059653858333222</v>
+        <v>0.3348369037953619</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7542999483993594</v>
+        <v>0.7828168959511111</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -2088,19 +2088,19 @@
         <v>8981</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5398</v>
+        <v>5665</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12140</v>
+        <v>12117</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5017244856280417</v>
+        <v>0.5017244856280418</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3015381966990752</v>
+        <v>0.3164562245866795</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6782250274553571</v>
+        <v>0.6769284592492795</v>
       </c>
     </row>
     <row r="24">
@@ -2192,19 +2192,19 @@
         <v>48976</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -2213,19 +2213,19 @@
         <v>23324</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16400</v>
+        <v>17258</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31098</v>
+        <v>31720</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4071626104444326</v>
+        <v>0.4071626104444327</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2862850766175092</v>
+        <v>0.301272290665611</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5428713797720214</v>
+        <v>0.5537174241716604</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -2234,19 +2234,19 @@
         <v>72300</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61585</v>
+        <v>61630</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82721</v>
+        <v>82714</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5761559980751885</v>
+        <v>0.5761559980751886</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4907668834195131</v>
+        <v>0.4911257034750621</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6591974493830871</v>
+        <v>0.6591430333921242</v>
       </c>
     </row>
     <row r="26">
@@ -2263,19 +2263,19 @@
         <v>19226</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13114</v>
+        <v>12630</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27344</v>
+        <v>26563</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.281901797553179</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.192286803032738</v>
+        <v>0.1851836121381725</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4009335505841712</v>
+        <v>0.3894748540186707</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -2284,19 +2284,19 @@
         <v>33961</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26187</v>
+        <v>25565</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40885</v>
+        <v>40027</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5928373895555672</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4571286202279799</v>
+        <v>0.4462825758283387</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7137149233824909</v>
+        <v>0.6987277093343889</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>73</v>
@@ -2305,19 +2305,19 @@
         <v>53187</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>42766</v>
+        <v>42773</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>63902</v>
+        <v>63857</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4238440019248115</v>
+        <v>0.4238440019248116</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3408025506169129</v>
+        <v>0.3408569666078762</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.509233116580487</v>
+        <v>0.508874296524938</v>
       </c>
     </row>
     <row r="27">
